--- a/InstanceItalyV1.xlsx
+++ b/InstanceItalyV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/Teaching/ST7-OSTP/DB Project/Students Work/Phase1/G4/InstancesV1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/PhD/Code/XWSRP/data/teaching/V1/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65794E3B-2516-FF4C-A5DA-C7865ECA1663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1675F1-1909-B345-8664-551A4FEB4E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>Latitude</t>
   </si>
@@ -301,13 +301,25 @@
   </si>
   <si>
     <t>10:00am</t>
+  </si>
+  <si>
+    <t>9:00am</t>
+  </si>
+  <si>
+    <t>7:00pm</t>
+  </si>
+  <si>
+    <t>12:30pm</t>
+  </si>
+  <si>
+    <t>1:30pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +336,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,8 +372,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,32 +690,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -707,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -716,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -750,10 +770,10 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -769,14 +789,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -785,29 +805,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B5638-0729-6D4C-A249-DFAFACA755C1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -819,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,28 +870,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1233,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
@@ -1363,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
@@ -1405,8 +1442,6 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1710,20 +1745,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB7EF1-C01E-3B43-89A6-E5B57D3AD8BD}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
